--- a/Python/CPU project/CPU 8/Cribsheet.xlsx
+++ b/Python/CPU project/CPU 8/Cribsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
   <si>
     <t>opcode</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -ov -oa -od -or</t>
+  </si>
+  <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>Holds execution until user presses return</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -725,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,6 +1916,9 @@
       <c r="K29" t="s">
         <v>117</v>
       </c>
+      <c r="M29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1905,9 +1928,33 @@
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>reg + flags</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4862,13 +4909,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M19 K4:K20 K22:K23 K25 K27:L28 F2:J257 K29">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NULL">
+  <conditionalFormatting sqref="M19 K4:K20 K22:K23 K25 K27:L28 F2:J257 K29 M29">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="NULL">
       <formula>NOT(ISERROR(SEARCH("NULL",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19 K4:K20 K22:K23 K25 G3:J29 K27:K29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="abs">
+  <conditionalFormatting sqref="M19 K4:K20 K22:K23 K25 G3:J29 K27:K29 M29">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="abs">
       <formula>NOT(ISERROR(SEARCH("abs",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
